--- a/public/template/Template Upload UKT.xlsx
+++ b/public/template/Template Upload UKT.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t xml:space="preserve">BUKU BESAR PEMBAYARAN DAN PIUTANG MAHASISWA</t>
+    <t xml:space="preserve">RIWAYAT PEMBAYARAN UKT MAHASISWA</t>
   </si>
   <si>
     <t>SEMESTER</t>
